--- a/UseCaseIScenarij/PodnosenjeZahtjevaZaDopust.xlsx
+++ b/UseCaseIScenarij/PodnosenjeZahtjevaZaDopust.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miamu\Desktop\UseCaseIScenarij\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -161,9 +161,6 @@
     <t>1. Obraća se čuvaru</t>
   </si>
   <si>
-    <t>2. Daje podataka</t>
-  </si>
-  <si>
     <t>8. Obavještava zatvorenika da je zahtjev odobren</t>
   </si>
   <si>
@@ -174,12 +171,15 @@
   </si>
   <si>
     <t>3. Obavještava zatvorenika da je zahtjev odbijen</t>
+  </si>
+  <si>
+    <t>2. Daje podatke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,6 +418,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -450,12 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,19 +774,19 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
@@ -797,150 +797,150 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="23"/>
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="23"/>
       <c r="F4" s="11"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="23"/>
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="11"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="23"/>
       <c r="F7" s="11"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="25"/>
       <c r="F8" s="11"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="24" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="27"/>
       <c r="F9" s="11"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="25"/>
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="F11" s="11"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="F12" s="11"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="26" t="s">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="29"/>
       <c r="F13" s="11"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="11"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
@@ -951,12 +951,12 @@
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -981,15 +981,15 @@
       <c r="C18" s="9"/>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
       <c r="D19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -999,7 +999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
@@ -1012,7 +1012,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="18"/>
       <c r="C22" s="1" t="s">
@@ -1027,10 +1027,10 @@
       <c r="J22" s="13"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -1040,14 +1040,14 @@
       <c r="J23" s="15"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="16"/>
@@ -1055,7 +1055,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1066,7 +1066,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>10</v>
       </c>
@@ -1079,14 +1079,14 @@
       <c r="J26" s="14"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="10"/>
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="19" t="s">
@@ -1120,10 +1120,10 @@
       <c r="J29" s="14"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -1133,84 +1133,84 @@
       <c r="J30" s="14"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G31" s="12"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G32" s="12"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G35" s="10"/>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" s="10"/>
       <c r="H36" s="15"/>
       <c r="I36" s="17"/>
       <c r="J36" s="14"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -1219,12 +1219,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="A8:B9"/>
@@ -1239,6 +1233,12 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
